--- a/BackTest/2019-10-22 BackTest LRC.xlsx
+++ b/BackTest/2019-10-22 BackTest LRC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.000000000000007</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>11.11111111111041</v>
+      </c>
       <c r="L12" t="n">
         <v>36.71</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.400000000000013</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>38.46153846153813</v>
+      </c>
       <c r="L13" t="n">
         <v>36.76000000000001</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.700000000000017</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>12.49999999999961</v>
+      </c>
       <c r="L14" t="n">
         <v>36.78</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.800000000000018</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>38.46153846153813</v>
+      </c>
       <c r="L15" t="n">
         <v>36.79000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.800000000000018</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.11111111111041</v>
+      </c>
       <c r="L16" t="n">
         <v>36.84</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.200000000000024</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>36.89</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.300000000000026</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L18" t="n">
         <v>36.92</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.500000000000021</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333302</v>
+      </c>
       <c r="L19" t="n">
         <v>36.97000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.000000000000021</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>36.97000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.300000000000026</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>13.04347826086964</v>
+      </c>
       <c r="L21" t="n">
         <v>37.00000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.400000000000027</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-10.00000000000007</v>
+      </c>
       <c r="L22" t="n">
         <v>37.02</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.700000000000024</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-9.999999999999751</v>
       </c>
       <c r="L23" t="n">
         <v>36.97000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>5.263157894736705</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L24" t="n">
         <v>36.97000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>5.263157894736705</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L25" t="n">
         <v>36.98</v>
@@ -1564,7 +1586,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>17.64705882352939</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L26" t="n">
         <v>36.98999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>4.000000000000021</v>
       </c>
       <c r="K27" t="n">
-        <v>3.225806451612711</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L27" t="n">
         <v>36.95</v>
@@ -1662,7 +1684,7 @@
         <v>4.500000000000021</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571423</v>
+        <v>-50</v>
       </c>
       <c r="L28" t="n">
         <v>36.87</v>
@@ -1711,7 +1733,7 @@
         <v>4.700000000000024</v>
       </c>
       <c r="K29" t="n">
-        <v>-8.108108108107993</v>
+        <v>-17.64705882352921</v>
       </c>
       <c r="L29" t="n">
         <v>36.79</v>
@@ -1760,7 +1782,7 @@
         <v>4.800000000000026</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.263157894736705</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>36.77</v>
@@ -1809,7 +1831,7 @@
         <v>4.900000000000027</v>
       </c>
       <c r="K31" t="n">
-        <v>-2.564102564102405</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L31" t="n">
         <v>36.73</v>
@@ -1860,7 +1882,7 @@
         <v>4.900000000000027</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.564102564102405</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>36.7</v>
@@ -1911,7 +1933,7 @@
         <v>4.900000000000027</v>
       </c>
       <c r="K33" t="n">
-        <v>-14.28571428571423</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L33" t="n">
         <v>36.7</v>
@@ -2013,7 +2035,7 @@
         <v>5.200000000000024</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L35" t="n">
         <v>36.69</v>
